--- a/Flux_Variability/table 2_11012016.xlsx
+++ b/Flux_Variability/table 2_11012016.xlsx
@@ -1217,22 +1217,22 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1820,7 +1820,7 @@
   <sheetData>
     <row r="2" spans="1:325" ht="16.2" thickBot="1"/>
     <row r="3" spans="1:325">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="61" t="s">
@@ -2163,7 +2163,7 @@
       <c r="LM3" s="29"/>
     </row>
     <row r="4" spans="1:325" ht="49.8" thickBot="1">
-      <c r="A4" s="60"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="41" t="s">
         <v>11</v>
       </c>
@@ -3299,26 +3299,26 @@
       </c>
     </row>
     <row r="19" spans="2:20" s="19" customFormat="1">
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
     </row>
     <row r="20" spans="2:20" s="19" customFormat="1">
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
       <c r="K20" s="22"/>
@@ -3437,6 +3437,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:K3"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
@@ -3447,11 +3452,6 @@
     <mergeCell ref="O19:Q19"/>
     <mergeCell ref="R19:T19"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3565,7 +3565,7 @@
   <sheetData>
     <row r="2" spans="1:325" ht="16.2" thickBot="1"/>
     <row r="3" spans="1:325">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="61" t="s">
@@ -3908,7 +3908,7 @@
       <c r="LM3" s="29"/>
     </row>
     <row r="4" spans="1:325" ht="49.8" thickBot="1">
-      <c r="A4" s="60"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="41" t="s">
         <v>11</v>
       </c>
@@ -5039,26 +5039,26 @@
       </c>
     </row>
     <row r="19" spans="2:20" s="19" customFormat="1">
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
     </row>
     <row r="20" spans="2:20" s="19" customFormat="1">
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
       <c r="K20" s="22"/>
@@ -5174,6 +5174,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
@@ -5182,13 +5189,6 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5224,40 +5224,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:20">
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63" t="s">
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63" t="s">
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63" t="s">
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
     </row>
     <row r="4" spans="1:20" ht="46.8">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="63"/>
+      <c r="G4" s="64"/>
       <c r="H4" t="s">
         <v>17</v>
       </c>
@@ -5821,40 +5821,40 @@
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="I21" s="63" t="s">
+      <c r="I21" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63" t="s">
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63" t="s">
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63" t="s">
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="S21" s="63"/>
-      <c r="T21" s="63"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
     </row>
     <row r="22" spans="1:20" ht="46.8">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63" t="s">
+      <c r="C22" s="64"/>
+      <c r="D22" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63" t="s">
+      <c r="E22" s="64"/>
+      <c r="F22" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="63"/>
+      <c r="G22" s="64"/>
       <c r="H22" t="s">
         <v>17</v>
       </c>
@@ -6194,6 +6194,12 @@
     <sortCondition ref="B25:B32"/>
   </sortState>
   <mergeCells count="14">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="L21:N21"/>
@@ -6202,12 +6208,6 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -11326,8 +11326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -12747,12 +12747,14 @@
       <c r="P38" t="s">
         <v>235</v>
       </c>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>236</v>
       </c>
-      <c r="B39" s="64">
+      <c r="B39" s="59">
         <v>-2.8400000000000002E-4</v>
       </c>
       <c r="C39">
@@ -12779,6 +12781,8 @@
       <c r="P39" t="s">
         <v>236</v>
       </c>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">

--- a/Flux_Variability/table 2_11012016.xlsx
+++ b/Flux_Variability/table 2_11012016.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="245">
   <si>
     <t>Model 1</t>
   </si>
@@ -672,9 +672,6 @@
     <t>EX_cpd00047(e)</t>
   </si>
   <si>
-    <t>EX_cpd00159(e)</t>
-  </si>
-  <si>
     <t>rxn14404</t>
   </si>
   <si>
@@ -774,63 +771,6 @@
     <t>rxn11934B_CC</t>
   </si>
   <si>
-    <t>EX_cpd00793(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00063(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00001(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00644(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00009(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00013(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd10515(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00030(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00254(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00034(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00149(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00058(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd11574(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00205(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00099(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd10516(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00393(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00029(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00218(e)</t>
-  </si>
-  <si>
     <t>Rxn</t>
   </si>
   <si>
@@ -847,6 +787,21 @@
   </si>
   <si>
     <t>HS Model</t>
+  </si>
+  <si>
+    <t>**Paired with above</t>
+  </si>
+  <si>
+    <t>**Inversely paired with above</t>
+  </si>
+  <si>
+    <t>(POR)</t>
+  </si>
+  <si>
+    <t>**Are these interesting?</t>
+  </si>
+  <si>
+    <t>*These 2 are paired</t>
   </si>
 </sst>
 </file>
@@ -937,7 +892,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -959,6 +914,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,7 +1034,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1233,6 +1200,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -11324,10 +11293,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -11340,2121 +11309,1373 @@
     <col min="16" max="16" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="F1" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K1" t="s">
         <v>199</v>
       </c>
       <c r="P1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="G2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="H2" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="K2" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="L2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="M2" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="P2" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="Q2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="R2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="66" customFormat="1">
+      <c r="A3" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="66">
+        <v>0</v>
+      </c>
+      <c r="C3" s="66">
         <v>0.28337800000000002</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="66">
+        <v>0</v>
+      </c>
+      <c r="H3" s="66">
         <v>9.0980000000000005E-2</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="L3" s="66">
+        <v>0</v>
+      </c>
+      <c r="M3" s="66">
         <v>0.48376000000000002</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
+      <c r="Q3" s="66">
+        <v>0</v>
+      </c>
+      <c r="R3" s="66">
         <v>0.32841599999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
+    <row r="4" spans="1:19" s="14" customFormat="1">
+      <c r="A4" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B4">
-        <v>-8.9</v>
-      </c>
-      <c r="C4">
-        <v>-8.9</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>7.7939230000000004</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="L4">
-        <v>-12.4</v>
-      </c>
-      <c r="M4">
-        <v>-12.4</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <v>14.969068</v>
+      </c>
+      <c r="P4" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
+      <c r="Q4" s="14">
+        <v>24.180218</v>
+      </c>
+      <c r="R4" s="14">
+        <v>24.62358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="65" customFormat="1">
+      <c r="A5" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B5" s="65">
+        <v>-6.1205489999999996</v>
+      </c>
+      <c r="C5" s="65">
+        <v>-5.4028689999999999</v>
+      </c>
+      <c r="F5" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="65">
+        <v>-5.8318919999999999</v>
+      </c>
+      <c r="H5" s="65">
+        <v>-4.706467</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="L5" s="65">
+        <v>-12.017341</v>
+      </c>
+      <c r="M5" s="65">
+        <v>-10.788001</v>
+      </c>
+      <c r="P5" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q5" s="65">
+        <v>-20.755714000000001</v>
+      </c>
+      <c r="R5" s="65">
+        <v>-20.049620000000001</v>
+      </c>
+      <c r="S5" s="65" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="65" customFormat="1">
+      <c r="A6" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="65">
+        <v>5.4999849999999997</v>
+      </c>
+      <c r="C6" s="65">
+        <v>6.1810200000000002</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="65">
+        <v>4.067545</v>
+      </c>
+      <c r="H6" s="65">
+        <v>4.4200929999999996</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="L6" s="65">
+        <v>11.075224</v>
+      </c>
+      <c r="M6" s="65">
+        <v>12.115308000000001</v>
+      </c>
+      <c r="P6" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q6" s="65">
+        <v>-0.95364800000000005</v>
+      </c>
+      <c r="R6" s="65">
+        <v>-0.65807300000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="65" customFormat="1">
+      <c r="A7" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="65">
+        <v>-6.1810200000000002</v>
+      </c>
+      <c r="C7" s="65">
+        <v>-5.4999849999999997</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="65">
+        <v>-4.4200929999999996</v>
+      </c>
+      <c r="H7" s="65">
+        <v>-4.067545</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L7" s="65">
+        <v>-12.115308000000001</v>
+      </c>
+      <c r="M7" s="65">
+        <v>-11.075224</v>
+      </c>
+      <c r="P7" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q7" s="65">
+        <v>0.65807300000000002</v>
+      </c>
+      <c r="R7" s="65">
+        <v>0.95364800000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="65" customFormat="1">
+      <c r="A8" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="65">
+        <v>-5.9489700000000001</v>
+      </c>
+      <c r="C8" s="65">
+        <v>-5.6246669999999996</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="65">
+        <v>-4.4310280000000004</v>
+      </c>
+      <c r="H8" s="65">
+        <v>-4.1317170000000001</v>
+      </c>
+      <c r="K8" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" s="65">
+        <v>-11.693483000000001</v>
+      </c>
+      <c r="M8" s="65">
+        <v>-11.320492</v>
+      </c>
+      <c r="P8" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q8" s="65">
+        <v>0.70750599999999997</v>
+      </c>
+      <c r="R8" s="65">
+        <v>0.87018399999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="66" customFormat="1">
+      <c r="A9" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="66">
+        <v>8.9</v>
+      </c>
+      <c r="C9" s="66">
+        <v>8.9</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="66">
+        <v>0</v>
+      </c>
+      <c r="H9" s="66">
+        <v>0</v>
+      </c>
+      <c r="K9" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" s="66">
+        <v>12.4</v>
+      </c>
+      <c r="M9" s="66">
+        <v>12.4</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q9" s="66">
+        <v>0</v>
+      </c>
+      <c r="R9" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="14" customFormat="1">
+      <c r="A10" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="14">
+        <v>-0.63760099999999997</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0.23192499999999999</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.68666000000000005</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" s="14">
+        <v>-1.0400830000000001</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0.18925600000000001</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>20.622336000000001</v>
+      </c>
+      <c r="R10" s="14">
+        <v>21.328430000000001</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="66" customFormat="1">
+      <c r="A11" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="66">
+        <v>8.9</v>
+      </c>
+      <c r="C11" s="66">
+        <v>8.9</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="66">
+        <v>0</v>
+      </c>
+      <c r="H11" s="66">
+        <v>0</v>
+      </c>
+      <c r="K11" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="66">
+        <v>12.4</v>
+      </c>
+      <c r="M11" s="66">
+        <v>12.4</v>
+      </c>
+      <c r="P11" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" s="66">
+        <v>0</v>
+      </c>
+      <c r="R11" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="66" customFormat="1">
+      <c r="A12" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="66">
+        <v>0</v>
+      </c>
+      <c r="C12" s="66">
+        <v>0</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="66">
+        <v>0</v>
+      </c>
+      <c r="H12" s="66">
+        <v>0</v>
+      </c>
+      <c r="K12" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="L12" s="66">
+        <v>0</v>
+      </c>
+      <c r="M12" s="66">
+        <v>0</v>
+      </c>
+      <c r="P12" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q12" s="66">
+        <v>0</v>
+      </c>
+      <c r="R12" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="66" customFormat="1">
+      <c r="A13" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="66">
+        <v>0</v>
+      </c>
+      <c r="C13" s="66">
+        <v>0</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="66">
+        <v>0</v>
+      </c>
+      <c r="H13" s="66">
+        <v>0</v>
+      </c>
+      <c r="K13" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="L13" s="66">
+        <v>0</v>
+      </c>
+      <c r="M13" s="66">
+        <v>0</v>
+      </c>
+      <c r="P13" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q13" s="66">
+        <v>0</v>
+      </c>
+      <c r="R13" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="14" customFormat="1">
+      <c r="A14" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="14">
+        <v>-1.5455950000000001</v>
+      </c>
+      <c r="C14" s="14">
+        <v>-1.0924039999999999</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G14" s="14">
+        <v>-3.7539419999999999</v>
+      </c>
+      <c r="H14" s="14">
+        <v>-2.8035960000000002</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="14">
+        <v>-10.193747999999999</v>
+      </c>
+      <c r="M14" s="14">
+        <v>-8.9104329999999994</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>-16.414641</v>
+      </c>
+      <c r="R14" s="14">
+        <v>-15.872293000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="14" customFormat="1">
+      <c r="A15" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="14">
+        <v>-10.213403</v>
+      </c>
+      <c r="C15" s="14">
+        <v>80.480553</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="14">
+        <v>-3.7539419999999999</v>
+      </c>
+      <c r="H15" s="14">
+        <v>11.833902999999999</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="L15" s="14">
+        <v>-10.193747999999999</v>
+      </c>
+      <c r="M15" s="14">
+        <v>19.744387</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>24.818663000000001</v>
+      </c>
+      <c r="R15" s="14">
+        <v>25.827707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="65" customFormat="1">
+      <c r="A16" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="65">
+        <v>-80.480553</v>
+      </c>
+      <c r="C16" s="65">
+        <v>10.213403</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="65">
+        <v>-11.833902999999999</v>
+      </c>
+      <c r="H16" s="65">
+        <v>3.7539419999999999</v>
+      </c>
+      <c r="K16" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="L16" s="65">
+        <v>-19.744387</v>
+      </c>
+      <c r="M16" s="65">
+        <v>10.193747999999999</v>
+      </c>
+      <c r="P16" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q16" s="65">
+        <v>-25.976597000000002</v>
+      </c>
+      <c r="R16" s="65">
+        <v>-24.574059999999999</v>
+      </c>
+      <c r="S16" s="65" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="14" customFormat="1">
+      <c r="A17" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="14">
+        <v>-31.416961000000001</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="14">
+        <v>-8.5171390000000002</v>
+      </c>
+      <c r="H17" s="14">
+        <v>-7.1324949999999996</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="L17" s="14">
+        <v>-17.426190999999999</v>
+      </c>
+      <c r="M17" s="14">
+        <v>-15.589088</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>-28.673846000000001</v>
+      </c>
+      <c r="R17" s="14">
+        <v>-28.230484000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="14" customFormat="1">
+      <c r="A18" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="14">
+        <v>-6.0800429999999999</v>
+      </c>
+      <c r="C18" s="14">
+        <v>-5.3971539999999996</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G18" s="14">
+        <v>-6.6401680000000001</v>
+      </c>
+      <c r="H18" s="14">
+        <v>-5.7306970000000002</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="L18" s="14">
+        <v>-12.329317</v>
+      </c>
+      <c r="M18" s="14">
+        <v>-10.823722</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>-20.791484000000001</v>
+      </c>
+      <c r="R18" s="14">
+        <v>-20.08539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="14" customFormat="1">
+      <c r="A19" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="14">
+        <v>0</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.63760099999999997</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="14">
+        <v>-4.093324</v>
+      </c>
+      <c r="H19" s="14">
+        <v>3.7096049999999998</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="L19" s="14">
+        <v>-2.0945290000000001</v>
+      </c>
+      <c r="M19" s="14">
+        <v>13.139065</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0.12717899999999999</v>
+      </c>
+      <c r="R19" s="14">
+        <v>0.65548700000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="14" customFormat="1">
+      <c r="A20" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="14">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1.100611</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1.364441</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="L20" s="14">
+        <v>4.4406109999999996</v>
+      </c>
+      <c r="M20" s="14">
+        <v>4.8315099999999997</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>7.9107789999999998</v>
+      </c>
+      <c r="R20" s="14">
+        <v>8.0539780000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="65" customFormat="1">
+      <c r="A21" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="65">
+        <v>0</v>
+      </c>
+      <c r="C21" s="65">
+        <v>0</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="G21" s="65">
+        <v>1.086711</v>
+      </c>
+      <c r="H21" s="65">
+        <v>1.350541</v>
+      </c>
+      <c r="K21" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="L21" s="65">
+        <v>4.4265850000000002</v>
+      </c>
+      <c r="M21" s="65">
+        <v>4.8174830000000002</v>
+      </c>
+      <c r="P21" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q21" s="65">
+        <v>7.8967330000000002</v>
+      </c>
+      <c r="R21" s="65">
+        <v>8.0399320000000003</v>
+      </c>
+      <c r="S21" s="65" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="66" customFormat="1">
+      <c r="A22" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="66">
+        <v>0</v>
+      </c>
+      <c r="C22" s="66">
+        <v>0</v>
+      </c>
+      <c r="F22" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" s="66">
+        <v>1.086711</v>
+      </c>
+      <c r="H22" s="66">
+        <v>1.350541</v>
+      </c>
+      <c r="K22" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" s="66">
+        <v>4.4265850000000002</v>
+      </c>
+      <c r="M22" s="66">
+        <v>4.8174830000000002</v>
+      </c>
+      <c r="P22" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q22" s="66">
+        <v>7.8967330000000002</v>
+      </c>
+      <c r="R22" s="66">
+        <v>8.0399320000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="66" customFormat="1">
+      <c r="A23" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="66">
+        <v>-2.3699999999999999E-4</v>
+      </c>
+      <c r="C23" s="66">
+        <v>-2.2499999999999999E-4</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="66">
+        <v>-1.3646640000000001</v>
+      </c>
+      <c r="H23" s="66">
+        <v>-1.1008340000000001</v>
+      </c>
+      <c r="K23" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="L23" s="66">
+        <v>-4.8317350000000001</v>
+      </c>
+      <c r="M23" s="66">
+        <v>-4.440836</v>
+      </c>
+      <c r="P23" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q23" s="66">
+        <v>-8.0542040000000004</v>
+      </c>
+      <c r="R23" s="66">
+        <v>-7.9110050000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="65" customFormat="1">
+      <c r="A24" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="65">
+        <v>2.2499999999999999E-4</v>
+      </c>
+      <c r="C24" s="65">
+        <v>2.3699999999999999E-4</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" s="65">
+        <v>1.1008340000000001</v>
+      </c>
+      <c r="H24" s="65">
+        <v>1.3646640000000001</v>
+      </c>
+      <c r="K24" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" s="65">
+        <v>4.440836</v>
+      </c>
+      <c r="M24" s="65">
+        <v>4.8317350000000001</v>
+      </c>
+      <c r="P24" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q24" s="65">
+        <v>7.9110050000000003</v>
+      </c>
+      <c r="R24" s="65">
+        <v>8.0542040000000004</v>
+      </c>
+      <c r="S24" s="65" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="65" customFormat="1">
+      <c r="A25" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="65">
+        <v>0</v>
+      </c>
+      <c r="C25" s="65">
+        <v>0</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" s="65">
+        <v>1.100611</v>
+      </c>
+      <c r="H25" s="65">
+        <v>1.364441</v>
+      </c>
+      <c r="K25" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" s="65">
+        <v>4.4406109999999996</v>
+      </c>
+      <c r="M25" s="65">
+        <v>4.8315099999999997</v>
+      </c>
+      <c r="P25" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q25" s="65">
+        <v>7.9107789999999998</v>
+      </c>
+      <c r="R25" s="65">
+        <v>8.0539780000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="14" customFormat="1">
+      <c r="A26" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="14">
+        <v>-22.537645000000001</v>
+      </c>
+      <c r="C26" s="14">
+        <v>24.587796999999998</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="14">
+        <v>-0.35254799999999997</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" s="14">
+        <v>-1.0400830000000001</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>-0.295574</v>
+      </c>
+      <c r="R26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="14" customFormat="1">
+      <c r="A27" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="14">
+        <v>-13.658329</v>
+      </c>
+      <c r="C27" s="14">
+        <v>31.416961000000001</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" s="14">
+        <v>-0.23503199999999999</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" s="14">
+        <v>-0.69338900000000003</v>
+      </c>
+      <c r="M27" s="14">
+        <v>0</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>-0.19705</v>
+      </c>
+      <c r="R27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="14" customFormat="1">
+      <c r="A28" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="14">
+        <v>4.3737899999999996</v>
+      </c>
+      <c r="C28" s="14">
+        <v>6.2014649999999998</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="14">
+        <v>-8.8831039999999994</v>
+      </c>
+      <c r="H28" s="14">
+        <v>6.8171480000000004</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" s="14">
+        <v>-25.733521</v>
+      </c>
+      <c r="M28" s="14">
+        <v>4.5664959999999999</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>0</v>
+      </c>
+      <c r="R28" s="14">
+        <v>0.59114900000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="14" customFormat="1">
+      <c r="A29" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="14">
+        <v>0</v>
+      </c>
+      <c r="C29" s="14">
+        <v>45.075290000000003</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14">
         <v>7.7939230000000004</v>
       </c>
-      <c r="K5" t="s">
-        <v>202</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="K29" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="14">
         <v>14.969068</v>
       </c>
-      <c r="P5" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q5">
-        <v>24.180218</v>
-      </c>
-      <c r="R5">
-        <v>24.62358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6">
-        <v>-6.1205489999999996</v>
-      </c>
-      <c r="C6">
-        <v>-5.4028689999999999</v>
-      </c>
-      <c r="F6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6">
-        <v>-5.8318919999999999</v>
-      </c>
-      <c r="H6">
-        <v>-4.706467</v>
-      </c>
-      <c r="K6" t="s">
-        <v>203</v>
-      </c>
-      <c r="L6">
-        <v>-12.017341</v>
-      </c>
-      <c r="M6">
-        <v>-10.788001</v>
-      </c>
-      <c r="P6" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q6">
-        <v>-20.755714000000001</v>
-      </c>
-      <c r="R6">
-        <v>-20.049620000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7">
-        <v>5.4999849999999997</v>
-      </c>
-      <c r="C7">
-        <v>6.1810200000000002</v>
-      </c>
-      <c r="F7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7">
-        <v>4.067545</v>
-      </c>
-      <c r="H7">
-        <v>4.4200929999999996</v>
-      </c>
-      <c r="K7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L7">
-        <v>11.075224</v>
-      </c>
-      <c r="M7">
-        <v>12.115308000000001</v>
-      </c>
-      <c r="P7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q7">
-        <v>-0.95364800000000005</v>
-      </c>
-      <c r="R7">
-        <v>-0.65807300000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8">
-        <v>-6.1810200000000002</v>
-      </c>
-      <c r="C8">
-        <v>-5.4999849999999997</v>
-      </c>
-      <c r="F8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G8">
-        <v>-4.4200929999999996</v>
-      </c>
-      <c r="H8">
-        <v>-4.067545</v>
-      </c>
-      <c r="K8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L8">
-        <v>-12.115308000000001</v>
-      </c>
-      <c r="M8">
-        <v>-11.075224</v>
-      </c>
-      <c r="P8" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q8">
-        <v>0.65807300000000002</v>
-      </c>
-      <c r="R8">
-        <v>0.95364800000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9">
-        <v>-5.9489700000000001</v>
-      </c>
-      <c r="C9">
-        <v>-5.6246669999999996</v>
-      </c>
-      <c r="F9" t="s">
-        <v>206</v>
-      </c>
-      <c r="G9">
-        <v>-4.4310280000000004</v>
-      </c>
-      <c r="H9">
-        <v>-4.1317170000000001</v>
-      </c>
-      <c r="K9" t="s">
-        <v>206</v>
-      </c>
-      <c r="L9">
-        <v>-11.693483000000001</v>
-      </c>
-      <c r="M9">
-        <v>-11.320492</v>
-      </c>
-      <c r="P9" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q9">
-        <v>0.70750599999999997</v>
-      </c>
-      <c r="R9">
-        <v>0.87018399999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10">
-        <v>8.9</v>
-      </c>
-      <c r="C10">
-        <v>8.9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10">
-        <v>12.4</v>
-      </c>
-      <c r="M10">
-        <v>12.4</v>
-      </c>
-      <c r="P10" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11">
-        <v>-0.63760099999999997</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11">
-        <v>0.23192499999999999</v>
-      </c>
-      <c r="H11">
-        <v>0.68666000000000005</v>
-      </c>
-      <c r="K11" t="s">
-        <v>208</v>
-      </c>
-      <c r="L11">
-        <v>-1.0400830000000001</v>
-      </c>
-      <c r="M11">
-        <v>0.18925600000000001</v>
-      </c>
-      <c r="P11" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q11">
-        <v>20.622336000000001</v>
-      </c>
-      <c r="R11">
-        <v>21.328430000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12">
-        <v>8.9</v>
-      </c>
-      <c r="C12">
-        <v>8.9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>209</v>
-      </c>
-      <c r="L12">
-        <v>12.4</v>
-      </c>
-      <c r="M12">
-        <v>12.4</v>
-      </c>
-      <c r="P12" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>210</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>210</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>211</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>211</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B15">
-        <v>-1.5455950000000001</v>
-      </c>
-      <c r="C15">
-        <v>-1.0924039999999999</v>
-      </c>
-      <c r="F15" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15">
-        <v>-3.7539419999999999</v>
-      </c>
-      <c r="H15">
-        <v>-2.8035960000000002</v>
-      </c>
-      <c r="K15" t="s">
-        <v>212</v>
-      </c>
-      <c r="L15">
-        <v>-10.193747999999999</v>
-      </c>
-      <c r="M15">
-        <v>-8.9104329999999994</v>
-      </c>
-      <c r="P15" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q15">
-        <v>-16.414641</v>
-      </c>
-      <c r="R15">
-        <v>-15.872293000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B16">
-        <v>-10.213403</v>
-      </c>
-      <c r="C16">
-        <v>80.480553</v>
-      </c>
-      <c r="F16" t="s">
-        <v>213</v>
-      </c>
-      <c r="G16">
-        <v>-3.7539419999999999</v>
-      </c>
-      <c r="H16">
-        <v>11.833902999999999</v>
-      </c>
-      <c r="K16" t="s">
-        <v>213</v>
-      </c>
-      <c r="L16">
-        <v>-10.193747999999999</v>
-      </c>
-      <c r="M16">
-        <v>19.744387</v>
-      </c>
-      <c r="P16" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q16">
-        <v>24.818663000000001</v>
-      </c>
-      <c r="R16">
-        <v>25.827707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17">
-        <v>-80.480553</v>
-      </c>
-      <c r="C17">
-        <v>10.213403</v>
-      </c>
-      <c r="F17" t="s">
-        <v>214</v>
-      </c>
-      <c r="G17">
-        <v>-11.833902999999999</v>
-      </c>
-      <c r="H17">
-        <v>3.7539419999999999</v>
-      </c>
-      <c r="K17" t="s">
-        <v>214</v>
-      </c>
-      <c r="L17">
-        <v>-19.744387</v>
-      </c>
-      <c r="M17">
-        <v>10.193747999999999</v>
-      </c>
-      <c r="P17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18">
-        <v>-31.416961000000001</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>215</v>
-      </c>
-      <c r="G18">
-        <v>-8.5171390000000002</v>
-      </c>
-      <c r="H18">
-        <v>-7.1324949999999996</v>
-      </c>
-      <c r="K18" t="s">
-        <v>215</v>
-      </c>
-      <c r="L18">
-        <v>-17.426190999999999</v>
-      </c>
-      <c r="M18">
-        <v>-15.589088</v>
-      </c>
-      <c r="P18" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q18">
-        <v>-28.673846000000001</v>
-      </c>
-      <c r="R18">
-        <v>-28.230484000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19">
-        <v>-6.0800429999999999</v>
-      </c>
-      <c r="C19">
-        <v>-5.3971539999999996</v>
-      </c>
-      <c r="F19" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19">
-        <v>-6.6401680000000001</v>
-      </c>
-      <c r="H19">
-        <v>-5.7306970000000002</v>
-      </c>
-      <c r="K19" t="s">
-        <v>216</v>
-      </c>
-      <c r="L19">
-        <v>-12.329317</v>
-      </c>
-      <c r="M19">
-        <v>-10.823722</v>
-      </c>
-      <c r="P19" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q19">
-        <v>-20.791484000000001</v>
-      </c>
-      <c r="R19">
-        <v>-20.08539</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" t="s">
-        <v>217</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0.63760099999999997</v>
-      </c>
-      <c r="F20" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20">
-        <v>-4.093324</v>
-      </c>
-      <c r="H20">
-        <v>3.7096049999999998</v>
-      </c>
-      <c r="K20" t="s">
-        <v>217</v>
-      </c>
-      <c r="L20">
-        <v>-2.0945290000000001</v>
-      </c>
-      <c r="M20">
-        <v>13.139065</v>
-      </c>
-      <c r="P20" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q20">
-        <v>0.12717899999999999</v>
-      </c>
-      <c r="R20">
-        <v>0.65548700000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>218</v>
-      </c>
-      <c r="G21">
-        <v>1.100611</v>
-      </c>
-      <c r="H21">
-        <v>1.364441</v>
-      </c>
-      <c r="K21" t="s">
-        <v>218</v>
-      </c>
-      <c r="L21">
-        <v>4.4406109999999996</v>
-      </c>
-      <c r="M21">
-        <v>4.8315099999999997</v>
-      </c>
-      <c r="P21" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q21">
-        <v>7.9107789999999998</v>
-      </c>
-      <c r="R21">
-        <v>8.0539780000000007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>219</v>
-      </c>
-      <c r="G22">
-        <v>1.086711</v>
-      </c>
-      <c r="H22">
-        <v>1.350541</v>
-      </c>
-      <c r="K22" t="s">
-        <v>219</v>
-      </c>
-      <c r="L22">
-        <v>4.4265850000000002</v>
-      </c>
-      <c r="M22">
-        <v>4.8174830000000002</v>
-      </c>
-      <c r="P22" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q22">
-        <v>7.8967330000000002</v>
-      </c>
-      <c r="R22">
-        <v>8.0399320000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>220</v>
-      </c>
-      <c r="G23">
-        <v>1.086711</v>
-      </c>
-      <c r="H23">
-        <v>1.350541</v>
-      </c>
-      <c r="K23" t="s">
-        <v>220</v>
-      </c>
-      <c r="L23">
-        <v>4.4265850000000002</v>
-      </c>
-      <c r="M23">
-        <v>4.8174830000000002</v>
-      </c>
-      <c r="P23" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q23">
-        <v>7.8967330000000002</v>
-      </c>
-      <c r="R23">
-        <v>8.0399320000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24">
-        <v>-2.3699999999999999E-4</v>
-      </c>
-      <c r="C24">
-        <v>-2.2499999999999999E-4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>221</v>
-      </c>
-      <c r="G24">
-        <v>-1.3646640000000001</v>
-      </c>
-      <c r="H24">
-        <v>-1.1008340000000001</v>
-      </c>
-      <c r="K24" t="s">
-        <v>221</v>
-      </c>
-      <c r="L24">
-        <v>-4.8317350000000001</v>
-      </c>
-      <c r="M24">
-        <v>-4.440836</v>
-      </c>
-      <c r="P24" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q24">
-        <v>-8.0542040000000004</v>
-      </c>
-      <c r="R24">
-        <v>-7.9110050000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B25">
-        <v>2.2499999999999999E-4</v>
-      </c>
-      <c r="C25">
-        <v>2.3699999999999999E-4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>222</v>
-      </c>
-      <c r="G25">
-        <v>1.1008340000000001</v>
-      </c>
-      <c r="H25">
-        <v>1.3646640000000001</v>
-      </c>
-      <c r="K25" t="s">
-        <v>222</v>
-      </c>
-      <c r="L25">
-        <v>4.440836</v>
-      </c>
-      <c r="M25">
-        <v>4.8317350000000001</v>
-      </c>
-      <c r="P25" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q25">
-        <v>7.9110050000000003</v>
-      </c>
-      <c r="R25">
-        <v>8.0542040000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" t="s">
-        <v>223</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26">
-        <v>1.100611</v>
-      </c>
-      <c r="H26">
-        <v>1.364441</v>
-      </c>
-      <c r="K26" t="s">
-        <v>223</v>
-      </c>
-      <c r="L26">
-        <v>4.4406109999999996</v>
-      </c>
-      <c r="M26">
-        <v>4.8315099999999997</v>
-      </c>
-      <c r="P26" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q26">
-        <v>7.9107789999999998</v>
-      </c>
-      <c r="R26">
-        <v>8.0539780000000007</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" t="s">
-        <v>224</v>
-      </c>
-      <c r="B27">
-        <v>-22.537645000000001</v>
-      </c>
-      <c r="C27">
-        <v>24.587796999999998</v>
-      </c>
-      <c r="F27" t="s">
-        <v>224</v>
-      </c>
-      <c r="G27">
-        <v>-0.35254799999999997</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="K27" t="s">
-        <v>224</v>
-      </c>
-      <c r="L27">
-        <v>-1.0400830000000001</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q27">
+      <c r="P29" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q29" s="14">
         <v>-0.295574</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" t="s">
-        <v>225</v>
-      </c>
-      <c r="B28">
-        <v>-13.658329</v>
-      </c>
-      <c r="C28">
-        <v>31.416961000000001</v>
-      </c>
-      <c r="F28" t="s">
-        <v>225</v>
-      </c>
-      <c r="G28">
-        <v>-0.23503199999999999</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="K28" t="s">
-        <v>225</v>
-      </c>
-      <c r="L28">
-        <v>-0.69338900000000003</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q28">
-        <v>-0.19705</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" t="s">
-        <v>226</v>
-      </c>
-      <c r="B29">
-        <v>4.3737899999999996</v>
-      </c>
-      <c r="C29">
-        <v>6.2014649999999998</v>
-      </c>
-      <c r="F29" t="s">
-        <v>226</v>
-      </c>
-      <c r="G29">
-        <v>-8.8831039999999994</v>
-      </c>
-      <c r="H29">
-        <v>6.8171480000000004</v>
-      </c>
-      <c r="K29" t="s">
-        <v>226</v>
-      </c>
-      <c r="L29">
-        <v>-25.733521</v>
-      </c>
-      <c r="M29">
-        <v>4.5664959999999999</v>
-      </c>
-      <c r="P29" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0.59114900000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" t="s">
+      <c r="R29" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="14" customFormat="1">
+      <c r="A30" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>45.075290000000003</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="B30" s="14">
+        <v>5.5731640000000002</v>
+      </c>
+      <c r="C30" s="14">
+        <v>6.0466129999999998</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>7.7939230000000004</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="G30" s="14">
+        <v>5.7306970000000002</v>
+      </c>
+      <c r="H30" s="14">
+        <v>6.6401680000000001</v>
+      </c>
+      <c r="K30" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>14.969068</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="L30" s="14">
+        <v>11.259888</v>
+      </c>
+      <c r="M30" s="14">
+        <v>12.329317</v>
+      </c>
+      <c r="P30" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="Q30">
-        <v>-0.295574</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" t="s">
+      <c r="Q30" s="14">
+        <v>-0.97231299999999998</v>
+      </c>
+      <c r="R30" s="14">
+        <v>-0.52035699999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="66" customFormat="1">
+      <c r="A31" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="B31">
-        <v>5.5731640000000002</v>
-      </c>
-      <c r="C31">
-        <v>6.0466129999999998</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="B31" s="66">
+        <v>6.2299100000000003</v>
+      </c>
+      <c r="C31" s="66">
+        <v>6.6623039999999998</v>
+      </c>
+      <c r="F31" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="66">
+        <v>5.9297019999999998</v>
+      </c>
+      <c r="H31" s="66">
+        <v>15.967528</v>
+      </c>
+      <c r="K31" s="66" t="s">
+        <v>228</v>
+      </c>
+      <c r="L31" s="66">
+        <v>12.034902000000001</v>
+      </c>
+      <c r="M31" s="66">
+        <v>39.122978000000003</v>
+      </c>
+      <c r="P31" s="66" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q31" s="66">
+        <v>21.772438000000001</v>
+      </c>
+      <c r="R31" s="66">
+        <v>22.169388999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="14" customFormat="1">
+      <c r="A32" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" s="14">
+        <v>5.3971539999999996</v>
+      </c>
+      <c r="C32" s="14">
+        <v>6.0800429999999999</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="14">
         <v>5.7306970000000002</v>
       </c>
-      <c r="H31">
+      <c r="H32" s="14">
         <v>6.6401680000000001</v>
       </c>
-      <c r="K31" t="s">
-        <v>228</v>
-      </c>
-      <c r="L31">
-        <v>11.259888</v>
-      </c>
-      <c r="M31">
+      <c r="K32" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="L32" s="14">
+        <v>10.823722</v>
+      </c>
+      <c r="M32" s="14">
         <v>12.329317</v>
       </c>
-      <c r="P31" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q31">
-        <v>-0.97231299999999998</v>
-      </c>
-      <c r="R31">
-        <v>-0.52035699999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" t="s">
+      <c r="P32" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B32">
-        <v>6.2299100000000003</v>
-      </c>
-      <c r="C32">
-        <v>6.6623039999999998</v>
-      </c>
-      <c r="F32" t="s">
-        <v>229</v>
-      </c>
-      <c r="G32">
-        <v>5.9297019999999998</v>
-      </c>
-      <c r="H32">
-        <v>15.967528</v>
-      </c>
-      <c r="K32" t="s">
-        <v>229</v>
-      </c>
-      <c r="L32">
-        <v>12.034902000000001</v>
-      </c>
-      <c r="M32">
-        <v>39.122978000000003</v>
-      </c>
-      <c r="P32" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q32">
-        <v>21.772438000000001</v>
-      </c>
-      <c r="R32">
-        <v>22.169388999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" t="s">
+      <c r="Q32" s="14">
+        <v>20.08539</v>
+      </c>
+      <c r="R32" s="14">
+        <v>20.532321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="66" customFormat="1">
+      <c r="A33" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="B33">
-        <v>5.3971539999999996</v>
-      </c>
-      <c r="C33">
-        <v>6.0800429999999999</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="B33" s="66">
+        <v>0</v>
+      </c>
+      <c r="C33" s="66">
+        <v>0</v>
+      </c>
+      <c r="F33" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="G33">
-        <v>5.7306970000000002</v>
-      </c>
-      <c r="H33">
-        <v>6.6401680000000001</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="G33" s="66">
+        <v>0</v>
+      </c>
+      <c r="H33" s="66">
+        <v>0</v>
+      </c>
+      <c r="K33" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="L33">
-        <v>10.823722</v>
-      </c>
-      <c r="M33">
-        <v>12.329317</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="L33" s="66">
+        <v>0</v>
+      </c>
+      <c r="M33" s="66">
+        <v>0</v>
+      </c>
+      <c r="P33" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="Q33">
-        <v>20.08539</v>
-      </c>
-      <c r="R33">
-        <v>20.532321</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" t="s">
+      <c r="Q33" s="66">
+        <v>0</v>
+      </c>
+      <c r="R33" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="66" customFormat="1">
+      <c r="A34" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="B34" s="66">
+        <v>0</v>
+      </c>
+      <c r="C34" s="66">
+        <v>0.318801</v>
+      </c>
+      <c r="F34" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="G34" s="66">
+        <v>0</v>
+      </c>
+      <c r="H34" s="66">
+        <v>0.17627399999999999</v>
+      </c>
+      <c r="K34" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="s">
+      <c r="L34" s="66">
+        <v>0</v>
+      </c>
+      <c r="M34" s="66">
+        <v>0.520042</v>
+      </c>
+      <c r="P34" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" t="s">
+      <c r="Q34" s="66">
+        <v>0</v>
+      </c>
+      <c r="R34" s="66">
+        <v>0.147787</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="66" customFormat="1">
+      <c r="A35" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0.318801</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="B35" s="66">
+        <v>0</v>
+      </c>
+      <c r="C35" s="66">
+        <v>0</v>
+      </c>
+      <c r="F35" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0.17627399999999999</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="G35" s="66">
+        <v>0.55030599999999996</v>
+      </c>
+      <c r="H35" s="66">
+        <v>0.68222099999999997</v>
+      </c>
+      <c r="K35" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0.520042</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="L35" s="66">
+        <v>2.2203059999999999</v>
+      </c>
+      <c r="M35" s="66">
+        <v>2.4157549999999999</v>
+      </c>
+      <c r="P35" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0.147787</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" t="s">
+      <c r="Q35" s="66">
+        <v>3.95539</v>
+      </c>
+      <c r="R35" s="66">
+        <v>4.0269890000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="66" customFormat="1">
+      <c r="A36" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="B36" s="66">
+        <v>-15.687797</v>
+      </c>
+      <c r="C36" s="66">
+        <v>29.387492999999999</v>
+      </c>
+      <c r="F36" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="G36">
-        <v>0.55030599999999996</v>
-      </c>
-      <c r="H36">
-        <v>0.68222099999999997</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="G36" s="66">
+        <v>0</v>
+      </c>
+      <c r="H36" s="66">
+        <v>0</v>
+      </c>
+      <c r="K36" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="L36">
-        <v>2.2203059999999999</v>
-      </c>
-      <c r="M36">
-        <v>2.4157549999999999</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="L36" s="66">
+        <v>0</v>
+      </c>
+      <c r="M36" s="66">
+        <v>0</v>
+      </c>
+      <c r="P36" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="Q36">
-        <v>3.95539</v>
-      </c>
-      <c r="R36">
-        <v>4.0269890000000004</v>
+      <c r="Q36" s="66">
+        <v>0</v>
+      </c>
+      <c r="R36" s="66">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" t="s">
-        <v>234</v>
-      </c>
-      <c r="B37">
-        <v>-15.687797</v>
-      </c>
-      <c r="C37">
-        <v>29.387492999999999</v>
-      </c>
-      <c r="F37" t="s">
-        <v>234</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="K37" t="s">
-        <v>234</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" t="s">
-        <v>235</v>
-      </c>
-      <c r="B38">
-        <v>-1.2999999999999999E-5</v>
-      </c>
-      <c r="C38">
-        <v>-1.2999999999999999E-5</v>
-      </c>
-      <c r="F38" t="s">
-        <v>235</v>
-      </c>
-      <c r="G38">
-        <v>-1.2999999999999999E-5</v>
-      </c>
-      <c r="H38">
-        <v>-1.2999999999999999E-5</v>
-      </c>
-      <c r="K38" t="s">
-        <v>235</v>
-      </c>
-      <c r="L38">
-        <v>-1.2999999999999999E-5</v>
-      </c>
-      <c r="M38">
-        <v>-1.2999999999999999E-5</v>
-      </c>
-      <c r="P38" t="s">
-        <v>235</v>
-      </c>
+      <c r="B38" s="59"/>
       <c r="Q38" s="56"/>
       <c r="R38" s="56"/>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" t="s">
-        <v>236</v>
-      </c>
-      <c r="B39" s="59">
-        <v>-2.8400000000000002E-4</v>
-      </c>
-      <c r="C39">
-        <v>-2.7E-4</v>
-      </c>
-      <c r="F39" t="s">
-        <v>236</v>
-      </c>
-      <c r="G39">
-        <v>-2.8200000000000002E-4</v>
-      </c>
-      <c r="H39">
-        <v>-2.6800000000000001E-4</v>
-      </c>
-      <c r="K39" t="s">
-        <v>236</v>
-      </c>
-      <c r="L39">
-        <v>-2.8400000000000002E-4</v>
-      </c>
-      <c r="M39">
-        <v>-2.7E-4</v>
-      </c>
-      <c r="P39" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" t="s">
-        <v>237</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0.34005400000000002</v>
-      </c>
-      <c r="F40" t="s">
-        <v>237</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>8.1750000000000003E-2</v>
-      </c>
-      <c r="K40" t="s">
-        <v>237</v>
-      </c>
-      <c r="L40">
-        <v>7.6780140000000001</v>
-      </c>
-      <c r="M40">
-        <v>8.2723549999999992</v>
-      </c>
-      <c r="P40" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41" t="s">
-        <v>201</v>
-      </c>
-      <c r="B41">
-        <v>-8.9</v>
-      </c>
-      <c r="C41">
-        <v>-8.9</v>
-      </c>
-      <c r="F41" t="s">
-        <v>201</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="K41" t="s">
-        <v>201</v>
-      </c>
-      <c r="L41">
-        <v>-12.4</v>
-      </c>
-      <c r="M41">
-        <v>-12.4</v>
-      </c>
-      <c r="P41" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42" t="s">
-        <v>238</v>
-      </c>
-      <c r="B42">
-        <v>-3.4999999999999997E-5</v>
-      </c>
-      <c r="C42">
-        <v>-3.3000000000000003E-5</v>
-      </c>
-      <c r="F42" t="s">
-        <v>238</v>
-      </c>
-      <c r="G42">
-        <v>-3.4E-5</v>
-      </c>
-      <c r="H42">
-        <v>-3.3000000000000003E-5</v>
-      </c>
-      <c r="K42" t="s">
-        <v>238</v>
-      </c>
-      <c r="L42">
-        <v>-3.4999999999999997E-5</v>
-      </c>
-      <c r="M42">
-        <v>-3.3000000000000003E-5</v>
-      </c>
-      <c r="P42" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" t="s">
-        <v>221</v>
-      </c>
-      <c r="B43">
-        <v>-2.3699999999999999E-4</v>
-      </c>
-      <c r="C43">
-        <v>-2.2499999999999999E-4</v>
-      </c>
-      <c r="F43" t="s">
-        <v>221</v>
-      </c>
-      <c r="G43">
-        <v>-1.3646640000000001</v>
-      </c>
-      <c r="H43">
-        <v>-1.1008340000000001</v>
-      </c>
-      <c r="K43" t="s">
-        <v>221</v>
-      </c>
-      <c r="L43">
-        <v>-4.8317350000000001</v>
-      </c>
-      <c r="M43">
-        <v>-4.440836</v>
-      </c>
-      <c r="P43" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" t="s">
-        <v>239</v>
-      </c>
-      <c r="B44">
-        <v>-2.6106000000000001E-2</v>
-      </c>
-      <c r="C44">
-        <v>-2.4801E-2</v>
-      </c>
-      <c r="F44" t="s">
-        <v>239</v>
-      </c>
-      <c r="G44">
-        <v>-2.5871999999999999E-2</v>
-      </c>
-      <c r="H44">
-        <v>-2.4577999999999999E-2</v>
-      </c>
-      <c r="K44" t="s">
-        <v>239</v>
-      </c>
-      <c r="L44">
-        <v>-2.6107000000000002E-2</v>
-      </c>
-      <c r="M44">
-        <v>-2.4801E-2</v>
-      </c>
-      <c r="P44" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" t="s">
-        <v>240</v>
-      </c>
-      <c r="B45">
-        <v>-2.9869759999999999</v>
-      </c>
-      <c r="C45">
-        <v>-2.6598359999999999</v>
-      </c>
-      <c r="F45" t="s">
-        <v>240</v>
-      </c>
-      <c r="G45">
-        <v>-0.81043600000000005</v>
-      </c>
-      <c r="H45">
-        <v>-0.55403800000000003</v>
-      </c>
-      <c r="K45" t="s">
-        <v>240</v>
-      </c>
-      <c r="L45">
-        <v>-0.76813200000000004</v>
-      </c>
-      <c r="M45">
-        <v>-0.55906999999999996</v>
-      </c>
-      <c r="P45" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" t="s">
-        <v>241</v>
-      </c>
-      <c r="B46">
-        <v>-4.26E-4</v>
-      </c>
-      <c r="C46">
-        <v>-4.0499999999999998E-4</v>
-      </c>
-      <c r="F46" t="s">
-        <v>241</v>
-      </c>
-      <c r="G46">
-        <v>-4.2299999999999998E-4</v>
-      </c>
-      <c r="H46">
-        <v>-4.0099999999999999E-4</v>
-      </c>
-      <c r="K46" t="s">
-        <v>241</v>
-      </c>
-      <c r="L46">
-        <v>-4.26E-4</v>
-      </c>
-      <c r="M46">
-        <v>-4.0499999999999998E-4</v>
-      </c>
-      <c r="P46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" t="s">
-        <v>242</v>
-      </c>
-      <c r="B47">
-        <v>-1.8900000000000001E-4</v>
-      </c>
-      <c r="C47">
-        <v>-1.8000000000000001E-4</v>
-      </c>
-      <c r="F47" t="s">
-        <v>242</v>
-      </c>
-      <c r="G47">
-        <v>-1.8799999999999999E-4</v>
-      </c>
-      <c r="H47">
-        <v>-1.7799999999999999E-4</v>
-      </c>
-      <c r="K47" t="s">
-        <v>242</v>
-      </c>
-      <c r="L47">
-        <v>-1.8900000000000001E-4</v>
-      </c>
-      <c r="M47">
-        <v>-1.8000000000000001E-4</v>
-      </c>
-      <c r="P47" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48" t="s">
-        <v>243</v>
-      </c>
-      <c r="B48">
-        <v>-4.7399999999999997E-4</v>
-      </c>
-      <c r="C48">
-        <v>-4.4999999999999999E-4</v>
-      </c>
-      <c r="F48" t="s">
-        <v>243</v>
-      </c>
-      <c r="G48">
-        <v>-4.6900000000000002E-4</v>
-      </c>
-      <c r="H48">
-        <v>-4.46E-4</v>
-      </c>
-      <c r="K48" t="s">
-        <v>243</v>
-      </c>
-      <c r="L48">
-        <v>-4.7399999999999997E-4</v>
-      </c>
-      <c r="M48">
-        <v>-4.4999999999999999E-4</v>
-      </c>
-      <c r="P48" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49" t="s">
-        <v>244</v>
-      </c>
-      <c r="B49">
-        <v>-1.8900000000000001E-4</v>
-      </c>
-      <c r="C49">
-        <v>-1.8000000000000001E-4</v>
-      </c>
-      <c r="F49" t="s">
-        <v>244</v>
-      </c>
-      <c r="G49">
-        <v>-1.8799999999999999E-4</v>
-      </c>
-      <c r="H49">
-        <v>-1.7799999999999999E-4</v>
-      </c>
-      <c r="K49" t="s">
-        <v>244</v>
-      </c>
-      <c r="L49">
-        <v>-1.8900000000000001E-4</v>
-      </c>
-      <c r="M49">
-        <v>-1.8000000000000001E-4</v>
-      </c>
-      <c r="P49" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="A50" t="s">
-        <v>245</v>
-      </c>
-      <c r="B50">
-        <v>-1.8900000000000001E-4</v>
-      </c>
-      <c r="C50">
-        <v>-1.8000000000000001E-4</v>
-      </c>
-      <c r="F50" t="s">
-        <v>245</v>
-      </c>
-      <c r="G50">
-        <v>-1.8799999999999999E-4</v>
-      </c>
-      <c r="H50">
-        <v>-1.7799999999999999E-4</v>
-      </c>
-      <c r="K50" t="s">
-        <v>245</v>
-      </c>
-      <c r="L50">
-        <v>-1.8900000000000001E-4</v>
-      </c>
-      <c r="M50">
-        <v>-1.8000000000000001E-4</v>
-      </c>
-      <c r="P50" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
-      <c r="A51" t="s">
-        <v>246</v>
-      </c>
-      <c r="B51">
-        <v>-1.8900000000000001E-4</v>
-      </c>
-      <c r="C51">
-        <v>-1.8000000000000001E-4</v>
-      </c>
-      <c r="F51" t="s">
-        <v>246</v>
-      </c>
-      <c r="G51">
-        <v>-1.8799999999999999E-4</v>
-      </c>
-      <c r="H51">
-        <v>-1.7799999999999999E-4</v>
-      </c>
-      <c r="K51" t="s">
-        <v>246</v>
-      </c>
-      <c r="L51">
-        <v>-1.8900000000000001E-4</v>
-      </c>
-      <c r="M51">
-        <v>-1.8000000000000001E-4</v>
-      </c>
-      <c r="P51" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
-      <c r="A52" t="s">
-        <v>247</v>
-      </c>
-      <c r="B52">
-        <v>-1.8900000000000001E-4</v>
-      </c>
-      <c r="C52">
-        <v>-1.8000000000000001E-4</v>
-      </c>
-      <c r="F52" t="s">
-        <v>247</v>
-      </c>
-      <c r="G52">
-        <v>-1.8799999999999999E-4</v>
-      </c>
-      <c r="H52">
-        <v>-1.7799999999999999E-4</v>
-      </c>
-      <c r="K52" t="s">
-        <v>247</v>
-      </c>
-      <c r="L52">
-        <v>-1.8900000000000001E-4</v>
-      </c>
-      <c r="M52">
-        <v>-1.8000000000000001E-4</v>
-      </c>
-      <c r="P52" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53" t="s">
-        <v>228</v>
-      </c>
-      <c r="B53">
-        <v>5.5731640000000002</v>
-      </c>
-      <c r="C53">
-        <v>6.0466129999999998</v>
-      </c>
-      <c r="F53" t="s">
-        <v>228</v>
-      </c>
-      <c r="G53">
-        <v>5.7306970000000002</v>
-      </c>
-      <c r="H53">
-        <v>6.6401680000000001</v>
-      </c>
-      <c r="K53" t="s">
-        <v>228</v>
-      </c>
-      <c r="L53">
-        <v>11.259888</v>
-      </c>
-      <c r="M53">
-        <v>12.329317</v>
-      </c>
-      <c r="P53" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="A54" t="s">
-        <v>248</v>
-      </c>
-      <c r="B54">
-        <v>-1.0656000000000001E-2</v>
-      </c>
-      <c r="C54">
-        <v>-1.0123E-2</v>
-      </c>
-      <c r="F54" t="s">
-        <v>248</v>
-      </c>
-      <c r="G54">
-        <v>-1.056E-2</v>
-      </c>
-      <c r="H54">
-        <v>-1.0031999999999999E-2</v>
-      </c>
-      <c r="K54" t="s">
-        <v>248</v>
-      </c>
-      <c r="L54">
-        <v>-1.0656000000000001E-2</v>
-      </c>
-      <c r="M54">
-        <v>-1.0123E-2</v>
-      </c>
-      <c r="P54" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55" t="s">
-        <v>249</v>
-      </c>
-      <c r="B55">
-        <v>-2.8400000000000002E-4</v>
-      </c>
-      <c r="C55">
-        <v>-2.7E-4</v>
-      </c>
-      <c r="F55" t="s">
-        <v>249</v>
-      </c>
-      <c r="G55">
-        <v>-2.8200000000000002E-4</v>
-      </c>
-      <c r="H55">
-        <v>-2.6800000000000001E-4</v>
-      </c>
-      <c r="K55" t="s">
-        <v>249</v>
-      </c>
-      <c r="L55">
-        <v>-2.8400000000000002E-4</v>
-      </c>
-      <c r="M55">
-        <v>-2.7E-4</v>
-      </c>
-      <c r="P55" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="A56" t="s">
-        <v>250</v>
-      </c>
-      <c r="B56">
-        <v>-4.26E-4</v>
-      </c>
-      <c r="C56">
-        <v>-4.0499999999999998E-4</v>
-      </c>
-      <c r="F56" t="s">
-        <v>250</v>
-      </c>
-      <c r="G56">
-        <v>-4.2299999999999998E-4</v>
-      </c>
-      <c r="H56">
-        <v>-4.0099999999999999E-4</v>
-      </c>
-      <c r="K56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L56">
-        <v>-4.26E-4</v>
-      </c>
-      <c r="M56">
-        <v>-4.0499999999999998E-4</v>
-      </c>
-      <c r="P56" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="A57" t="s">
-        <v>251</v>
-      </c>
-      <c r="B57">
-        <v>-4.0000000000000003E-5</v>
-      </c>
-      <c r="C57">
-        <v>-3.8000000000000002E-5</v>
-      </c>
-      <c r="F57" t="s">
-        <v>251</v>
-      </c>
-      <c r="G57">
-        <v>-4.0000000000000003E-5</v>
-      </c>
-      <c r="H57">
-        <v>-3.8000000000000002E-5</v>
-      </c>
-      <c r="K57" t="s">
-        <v>251</v>
-      </c>
-      <c r="L57">
-        <v>-4.0000000000000003E-5</v>
-      </c>
-      <c r="M57">
-        <v>-3.8000000000000002E-5</v>
-      </c>
-      <c r="P57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" t="s">
-        <v>252</v>
-      </c>
-      <c r="B58">
-        <v>5.6246669999999996</v>
-      </c>
-      <c r="C58">
-        <v>5.9489700000000001</v>
-      </c>
-      <c r="F58" t="s">
-        <v>252</v>
-      </c>
-      <c r="G58">
-        <v>4.1317170000000001</v>
-      </c>
-      <c r="H58">
-        <v>4.4310280000000004</v>
-      </c>
-      <c r="K58" t="s">
-        <v>252</v>
-      </c>
-      <c r="L58">
-        <v>11.320492</v>
-      </c>
-      <c r="M58">
-        <v>11.693483000000001</v>
-      </c>
-      <c r="P58" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" t="s">
-        <v>253</v>
-      </c>
-      <c r="B59">
-        <v>-1.37E-4</v>
-      </c>
-      <c r="C59">
-        <v>-1.2999999999999999E-4</v>
-      </c>
-      <c r="F59" t="s">
-        <v>253</v>
-      </c>
-      <c r="G59">
-        <v>-1.35E-4</v>
-      </c>
-      <c r="H59">
-        <v>-1.2899999999999999E-4</v>
-      </c>
-      <c r="K59" t="s">
-        <v>253</v>
-      </c>
-      <c r="L59">
-        <v>-1.37E-4</v>
-      </c>
-      <c r="M59">
-        <v>-1.2999999999999999E-4</v>
-      </c>
-      <c r="P59" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" t="s">
-        <v>220</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="F60" t="s">
-        <v>220</v>
-      </c>
-      <c r="G60">
-        <v>1.086711</v>
-      </c>
-      <c r="H60">
-        <v>1.350541</v>
-      </c>
-      <c r="K60" t="s">
-        <v>220</v>
-      </c>
-      <c r="L60">
-        <v>4.4265850000000002</v>
-      </c>
-      <c r="M60">
-        <v>4.8174830000000002</v>
-      </c>
-      <c r="P60" t="s">
-        <v>220</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Flux_Variability/table 2_11012016.xlsx
+++ b/Flux_Variability/table 2_11012016.xlsx
@@ -1185,23 +1185,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1792,39 +1792,39 @@
       <c r="A3" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="35"/>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61" t="s">
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61" t="s">
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61" t="s">
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
       <c r="U3" s="29"/>
       <c r="V3" s="29"/>
       <c r="W3" s="29"/>
@@ -3268,26 +3268,26 @@
       </c>
     </row>
     <row r="19" spans="2:20" s="19" customFormat="1">
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
     </row>
     <row r="20" spans="2:20" s="19" customFormat="1">
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
       <c r="K20" s="22"/>
@@ -3406,11 +3406,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:K3"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
@@ -3421,6 +3416,11 @@
     <mergeCell ref="O19:Q19"/>
     <mergeCell ref="R19:T19"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3537,39 +3537,39 @@
       <c r="A3" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="35"/>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61" t="s">
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61" t="s">
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61" t="s">
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
       <c r="U3" s="29"/>
       <c r="V3" s="29"/>
       <c r="W3" s="29"/>
@@ -5008,26 +5008,26 @@
       </c>
     </row>
     <row r="19" spans="2:20" s="19" customFormat="1">
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
     </row>
     <row r="20" spans="2:20" s="19" customFormat="1">
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
       <c r="K20" s="22"/>
@@ -5143,13 +5143,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
@@ -5158,6 +5151,13 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5193,40 +5193,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:20">
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64" t="s">
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64" t="s">
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64" t="s">
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
     </row>
     <row r="4" spans="1:20" ht="46.8">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="66"/>
       <c r="H4" t="s">
         <v>17</v>
       </c>
@@ -5790,40 +5790,40 @@
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="I21" s="64" t="s">
+      <c r="I21" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64" t="s">
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64" t="s">
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64" t="s">
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
     </row>
     <row r="22" spans="1:20" ht="46.8">
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64" t="s">
+      <c r="C22" s="66"/>
+      <c r="D22" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64" t="s">
+      <c r="E22" s="66"/>
+      <c r="F22" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="64"/>
+      <c r="G22" s="66"/>
       <c r="H22" t="s">
         <v>17</v>
       </c>
@@ -6163,12 +6163,6 @@
     <sortCondition ref="B25:B32"/>
   </sortState>
   <mergeCells count="14">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="L21:N21"/>
@@ -6177,6 +6171,12 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -11296,7 +11296,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="A3" sqref="A3:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -11361,41 +11361,41 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="66" customFormat="1">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:19" s="61" customFormat="1">
+      <c r="A3" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="66">
-        <v>0</v>
-      </c>
-      <c r="C3" s="66">
+      <c r="B3" s="61">
+        <v>0</v>
+      </c>
+      <c r="C3" s="61">
         <v>0.28337800000000002</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="G3" s="66">
-        <v>0</v>
-      </c>
-      <c r="H3" s="66">
+      <c r="G3" s="61">
+        <v>0</v>
+      </c>
+      <c r="H3" s="61">
         <v>9.0980000000000005E-2</v>
       </c>
-      <c r="K3" s="66" t="s">
+      <c r="K3" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="L3" s="66">
-        <v>0</v>
-      </c>
-      <c r="M3" s="66">
+      <c r="L3" s="61">
+        <v>0</v>
+      </c>
+      <c r="M3" s="61">
         <v>0.48376000000000002</v>
       </c>
-      <c r="P3" s="66" t="s">
+      <c r="P3" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="Q3" s="66">
-        <v>0</v>
-      </c>
-      <c r="R3" s="66">
+      <c r="Q3" s="61">
+        <v>0</v>
+      </c>
+      <c r="R3" s="61">
         <v>0.32841599999999999</v>
       </c>
     </row>
@@ -11437,196 +11437,196 @@
         <v>24.62358</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="65" customFormat="1">
-      <c r="A5" s="65" t="s">
+    <row r="5" spans="1:19" s="60" customFormat="1">
+      <c r="A5" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="60">
         <v>-6.1205489999999996</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="60">
         <v>-5.4028689999999999</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="65">
+      <c r="G5" s="60">
         <v>-5.8318919999999999</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="60">
         <v>-4.706467</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="L5" s="65">
+      <c r="L5" s="60">
         <v>-12.017341</v>
       </c>
-      <c r="M5" s="65">
+      <c r="M5" s="60">
         <v>-10.788001</v>
       </c>
-      <c r="P5" s="65" t="s">
+      <c r="P5" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="Q5" s="65">
+      <c r="Q5" s="60">
         <v>-20.755714000000001</v>
       </c>
-      <c r="R5" s="65">
+      <c r="R5" s="60">
         <v>-20.049620000000001</v>
       </c>
-      <c r="S5" s="65" t="s">
+      <c r="S5" s="60" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="65" customFormat="1">
-      <c r="A6" s="65" t="s">
+    <row r="6" spans="1:19" s="60" customFormat="1">
+      <c r="A6" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="60">
         <v>5.4999849999999997</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="60">
         <v>6.1810200000000002</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="60">
         <v>4.067545</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="60">
         <v>4.4200929999999996</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="L6" s="65">
+      <c r="L6" s="60">
         <v>11.075224</v>
       </c>
-      <c r="M6" s="65">
+      <c r="M6" s="60">
         <v>12.115308000000001</v>
       </c>
-      <c r="P6" s="65" t="s">
+      <c r="P6" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="Q6" s="65">
+      <c r="Q6" s="60">
         <v>-0.95364800000000005</v>
       </c>
-      <c r="R6" s="65">
+      <c r="R6" s="60">
         <v>-0.65807300000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="65" customFormat="1">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:19" s="60" customFormat="1">
+      <c r="A7" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="60">
         <v>-6.1810200000000002</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="60">
         <v>-5.4999849999999997</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="60">
         <v>-4.4200929999999996</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="60">
         <v>-4.067545</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="L7" s="65">
+      <c r="L7" s="60">
         <v>-12.115308000000001</v>
       </c>
-      <c r="M7" s="65">
+      <c r="M7" s="60">
         <v>-11.075224</v>
       </c>
-      <c r="P7" s="65" t="s">
+      <c r="P7" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="Q7" s="65">
+      <c r="Q7" s="60">
         <v>0.65807300000000002</v>
       </c>
-      <c r="R7" s="65">
+      <c r="R7" s="60">
         <v>0.95364800000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="65" customFormat="1">
-      <c r="A8" s="65" t="s">
+    <row r="8" spans="1:19" s="60" customFormat="1">
+      <c r="A8" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="60">
         <v>-5.9489700000000001</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="60">
         <v>-5.6246669999999996</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="60">
         <v>-4.4310280000000004</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="60">
         <v>-4.1317170000000001</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="L8" s="65">
+      <c r="L8" s="60">
         <v>-11.693483000000001</v>
       </c>
-      <c r="M8" s="65">
+      <c r="M8" s="60">
         <v>-11.320492</v>
       </c>
-      <c r="P8" s="65" t="s">
+      <c r="P8" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="Q8" s="65">
+      <c r="Q8" s="60">
         <v>0.70750599999999997</v>
       </c>
-      <c r="R8" s="65">
+      <c r="R8" s="60">
         <v>0.87018399999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="66" customFormat="1">
-      <c r="A9" s="66" t="s">
+    <row r="9" spans="1:19" s="61" customFormat="1">
+      <c r="A9" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="61">
         <v>8.9</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="61">
         <v>8.9</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="G9" s="66">
-        <v>0</v>
-      </c>
-      <c r="H9" s="66">
-        <v>0</v>
-      </c>
-      <c r="K9" s="66" t="s">
+      <c r="G9" s="61">
+        <v>0</v>
+      </c>
+      <c r="H9" s="61">
+        <v>0</v>
+      </c>
+      <c r="K9" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="L9" s="66">
+      <c r="L9" s="61">
         <v>12.4</v>
       </c>
-      <c r="M9" s="66">
+      <c r="M9" s="61">
         <v>12.4</v>
       </c>
-      <c r="P9" s="66" t="s">
+      <c r="P9" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="Q9" s="66">
-        <v>0</v>
-      </c>
-      <c r="R9" s="66">
+      <c r="Q9" s="61">
+        <v>0</v>
+      </c>
+      <c r="R9" s="61">
         <v>0</v>
       </c>
     </row>
@@ -11671,117 +11671,117 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="66" customFormat="1">
-      <c r="A11" s="66" t="s">
+    <row r="11" spans="1:19" s="61" customFormat="1">
+      <c r="A11" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="66">
+      <c r="B11" s="61">
         <v>8.9</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="61">
         <v>8.9</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="66">
-        <v>0</v>
-      </c>
-      <c r="H11" s="66">
-        <v>0</v>
-      </c>
-      <c r="K11" s="66" t="s">
+      <c r="G11" s="61">
+        <v>0</v>
+      </c>
+      <c r="H11" s="61">
+        <v>0</v>
+      </c>
+      <c r="K11" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="L11" s="66">
+      <c r="L11" s="61">
         <v>12.4</v>
       </c>
-      <c r="M11" s="66">
+      <c r="M11" s="61">
         <v>12.4</v>
       </c>
-      <c r="P11" s="66" t="s">
+      <c r="P11" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="Q11" s="66">
-        <v>0</v>
-      </c>
-      <c r="R11" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="66" customFormat="1">
-      <c r="A12" s="66" t="s">
+      <c r="Q11" s="61">
+        <v>0</v>
+      </c>
+      <c r="R11" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="61" customFormat="1">
+      <c r="A12" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="66">
-        <v>0</v>
-      </c>
-      <c r="C12" s="66">
-        <v>0</v>
-      </c>
-      <c r="F12" s="66" t="s">
+      <c r="B12" s="61">
+        <v>0</v>
+      </c>
+      <c r="C12" s="61">
+        <v>0</v>
+      </c>
+      <c r="F12" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="G12" s="66">
-        <v>0</v>
-      </c>
-      <c r="H12" s="66">
-        <v>0</v>
-      </c>
-      <c r="K12" s="66" t="s">
+      <c r="G12" s="61">
+        <v>0</v>
+      </c>
+      <c r="H12" s="61">
+        <v>0</v>
+      </c>
+      <c r="K12" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="L12" s="66">
-        <v>0</v>
-      </c>
-      <c r="M12" s="66">
-        <v>0</v>
-      </c>
-      <c r="P12" s="66" t="s">
+      <c r="L12" s="61">
+        <v>0</v>
+      </c>
+      <c r="M12" s="61">
+        <v>0</v>
+      </c>
+      <c r="P12" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="Q12" s="66">
-        <v>0</v>
-      </c>
-      <c r="R12" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="66" customFormat="1">
-      <c r="A13" s="66" t="s">
+      <c r="Q12" s="61">
+        <v>0</v>
+      </c>
+      <c r="R12" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="61" customFormat="1">
+      <c r="A13" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="B13" s="66">
-        <v>0</v>
-      </c>
-      <c r="C13" s="66">
-        <v>0</v>
-      </c>
-      <c r="F13" s="66" t="s">
+      <c r="B13" s="61">
+        <v>0</v>
+      </c>
+      <c r="C13" s="61">
+        <v>0</v>
+      </c>
+      <c r="F13" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="66">
-        <v>0</v>
-      </c>
-      <c r="H13" s="66">
-        <v>0</v>
-      </c>
-      <c r="K13" s="66" t="s">
+      <c r="G13" s="61">
+        <v>0</v>
+      </c>
+      <c r="H13" s="61">
+        <v>0</v>
+      </c>
+      <c r="K13" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="L13" s="66">
-        <v>0</v>
-      </c>
-      <c r="M13" s="66">
-        <v>0</v>
-      </c>
-      <c r="P13" s="66" t="s">
+      <c r="L13" s="61">
+        <v>0</v>
+      </c>
+      <c r="M13" s="61">
+        <v>0</v>
+      </c>
+      <c r="P13" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="Q13" s="66">
-        <v>0</v>
-      </c>
-      <c r="R13" s="66">
+      <c r="Q13" s="61">
+        <v>0</v>
+      </c>
+      <c r="R13" s="61">
         <v>0</v>
       </c>
     </row>
@@ -11861,44 +11861,44 @@
         <v>25.827707</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="65" customFormat="1">
-      <c r="A16" s="65" t="s">
+    <row r="16" spans="1:19" s="60" customFormat="1">
+      <c r="A16" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="B16" s="65">
+      <c r="B16" s="60">
         <v>-80.480553</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="60">
         <v>10.213403</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G16" s="60">
         <v>-11.833902999999999</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="60">
         <v>3.7539419999999999</v>
       </c>
-      <c r="K16" s="65" t="s">
+      <c r="K16" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="L16" s="65">
+      <c r="L16" s="60">
         <v>-19.744387</v>
       </c>
-      <c r="M16" s="65">
+      <c r="M16" s="60">
         <v>10.193747999999999</v>
       </c>
-      <c r="P16" s="65" t="s">
+      <c r="P16" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="Q16" s="65">
+      <c r="Q16" s="60">
         <v>-25.976597000000002</v>
       </c>
-      <c r="R16" s="65">
+      <c r="R16" s="60">
         <v>-24.574059999999999</v>
       </c>
-      <c r="S16" s="65" t="s">
+      <c r="S16" s="60" t="s">
         <v>241</v>
       </c>
     </row>
@@ -12054,199 +12054,199 @@
         <v>8.0539780000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="65" customFormat="1">
-      <c r="A21" s="65" t="s">
+    <row r="21" spans="1:19" s="60" customFormat="1">
+      <c r="A21" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="B21" s="65">
-        <v>0</v>
-      </c>
-      <c r="C21" s="65">
-        <v>0</v>
-      </c>
-      <c r="F21" s="65" t="s">
+      <c r="B21" s="60">
+        <v>0</v>
+      </c>
+      <c r="C21" s="60">
+        <v>0</v>
+      </c>
+      <c r="F21" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="60">
         <v>1.086711</v>
       </c>
-      <c r="H21" s="65">
+      <c r="H21" s="60">
         <v>1.350541</v>
       </c>
-      <c r="K21" s="65" t="s">
+      <c r="K21" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="L21" s="65">
+      <c r="L21" s="60">
         <v>4.4265850000000002</v>
       </c>
-      <c r="M21" s="65">
+      <c r="M21" s="60">
         <v>4.8174830000000002</v>
       </c>
-      <c r="P21" s="65" t="s">
+      <c r="P21" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="Q21" s="65">
+      <c r="Q21" s="60">
         <v>7.8967330000000002</v>
       </c>
-      <c r="R21" s="65">
+      <c r="R21" s="60">
         <v>8.0399320000000003</v>
       </c>
-      <c r="S21" s="65" t="s">
+      <c r="S21" s="60" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="66" customFormat="1">
-      <c r="A22" s="66" t="s">
+    <row r="22" spans="1:19" s="61" customFormat="1">
+      <c r="A22" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="B22" s="66">
-        <v>0</v>
-      </c>
-      <c r="C22" s="66">
-        <v>0</v>
-      </c>
-      <c r="F22" s="66" t="s">
+      <c r="B22" s="61">
+        <v>0</v>
+      </c>
+      <c r="C22" s="61">
+        <v>0</v>
+      </c>
+      <c r="F22" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="G22" s="66">
+      <c r="G22" s="61">
         <v>1.086711</v>
       </c>
-      <c r="H22" s="66">
+      <c r="H22" s="61">
         <v>1.350541</v>
       </c>
-      <c r="K22" s="66" t="s">
+      <c r="K22" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="L22" s="66">
+      <c r="L22" s="61">
         <v>4.4265850000000002</v>
       </c>
-      <c r="M22" s="66">
+      <c r="M22" s="61">
         <v>4.8174830000000002</v>
       </c>
-      <c r="P22" s="66" t="s">
+      <c r="P22" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="Q22" s="66">
+      <c r="Q22" s="61">
         <v>7.8967330000000002</v>
       </c>
-      <c r="R22" s="66">
+      <c r="R22" s="61">
         <v>8.0399320000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="66" customFormat="1">
-      <c r="A23" s="66" t="s">
+    <row r="23" spans="1:19" s="61" customFormat="1">
+      <c r="A23" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="B23" s="66">
+      <c r="B23" s="61">
         <v>-2.3699999999999999E-4</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="61">
         <v>-2.2499999999999999E-4</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="G23" s="66">
+      <c r="G23" s="61">
         <v>-1.3646640000000001</v>
       </c>
-      <c r="H23" s="66">
+      <c r="H23" s="61">
         <v>-1.1008340000000001</v>
       </c>
-      <c r="K23" s="66" t="s">
+      <c r="K23" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="L23" s="66">
+      <c r="L23" s="61">
         <v>-4.8317350000000001</v>
       </c>
-      <c r="M23" s="66">
+      <c r="M23" s="61">
         <v>-4.440836</v>
       </c>
-      <c r="P23" s="66" t="s">
+      <c r="P23" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="Q23" s="66">
+      <c r="Q23" s="61">
         <v>-8.0542040000000004</v>
       </c>
-      <c r="R23" s="66">
+      <c r="R23" s="61">
         <v>-7.9110050000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="65" customFormat="1">
-      <c r="A24" s="65" t="s">
+    <row r="24" spans="1:19" s="60" customFormat="1">
+      <c r="A24" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="B24" s="65">
+      <c r="B24" s="60">
         <v>2.2499999999999999E-4</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="60">
         <v>2.3699999999999999E-4</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="G24" s="65">
+      <c r="G24" s="60">
         <v>1.1008340000000001</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="60">
         <v>1.3646640000000001</v>
       </c>
-      <c r="K24" s="65" t="s">
+      <c r="K24" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="L24" s="65">
+      <c r="L24" s="60">
         <v>4.440836</v>
       </c>
-      <c r="M24" s="65">
+      <c r="M24" s="60">
         <v>4.8317350000000001</v>
       </c>
-      <c r="P24" s="65" t="s">
+      <c r="P24" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="Q24" s="65">
+      <c r="Q24" s="60">
         <v>7.9110050000000003</v>
       </c>
-      <c r="R24" s="65">
+      <c r="R24" s="60">
         <v>8.0542040000000004</v>
       </c>
-      <c r="S24" s="65" t="s">
+      <c r="S24" s="60" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="65" customFormat="1">
-      <c r="A25" s="65" t="s">
+    <row r="25" spans="1:19" s="60" customFormat="1">
+      <c r="A25" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="B25" s="65">
-        <v>0</v>
-      </c>
-      <c r="C25" s="65">
-        <v>0</v>
-      </c>
-      <c r="F25" s="65" t="s">
+      <c r="B25" s="60">
+        <v>0</v>
+      </c>
+      <c r="C25" s="60">
+        <v>0</v>
+      </c>
+      <c r="F25" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="60">
         <v>1.100611</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="60">
         <v>1.364441</v>
       </c>
-      <c r="K25" s="65" t="s">
+      <c r="K25" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="L25" s="65">
+      <c r="L25" s="60">
         <v>4.4406109999999996</v>
       </c>
-      <c r="M25" s="65">
+      <c r="M25" s="60">
         <v>4.8315099999999997</v>
       </c>
-      <c r="P25" s="65" t="s">
+      <c r="P25" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="Q25" s="65">
+      <c r="Q25" s="60">
         <v>7.9107789999999998</v>
       </c>
-      <c r="R25" s="65">
+      <c r="R25" s="60">
         <v>8.0539780000000007</v>
       </c>
     </row>
@@ -12440,41 +12440,41 @@
         <v>-0.52035699999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="66" customFormat="1">
-      <c r="A31" s="66" t="s">
+    <row r="31" spans="1:19" s="61" customFormat="1">
+      <c r="A31" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="B31" s="66">
+      <c r="B31" s="61">
         <v>6.2299100000000003</v>
       </c>
-      <c r="C31" s="66">
+      <c r="C31" s="61">
         <v>6.6623039999999998</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="G31" s="66">
+      <c r="G31" s="61">
         <v>5.9297019999999998</v>
       </c>
-      <c r="H31" s="66">
+      <c r="H31" s="61">
         <v>15.967528</v>
       </c>
-      <c r="K31" s="66" t="s">
+      <c r="K31" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="L31" s="66">
+      <c r="L31" s="61">
         <v>12.034902000000001</v>
       </c>
-      <c r="M31" s="66">
+      <c r="M31" s="61">
         <v>39.122978000000003</v>
       </c>
-      <c r="P31" s="66" t="s">
+      <c r="P31" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="Q31" s="66">
+      <c r="Q31" s="61">
         <v>21.772438000000001</v>
       </c>
-      <c r="R31" s="66">
+      <c r="R31" s="61">
         <v>22.169388999999999</v>
       </c>
     </row>
@@ -12516,155 +12516,155 @@
         <v>20.532321</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="66" customFormat="1">
-      <c r="A33" s="66" t="s">
+    <row r="33" spans="1:18" s="61" customFormat="1">
+      <c r="A33" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="B33" s="66">
-        <v>0</v>
-      </c>
-      <c r="C33" s="66">
-        <v>0</v>
-      </c>
-      <c r="F33" s="66" t="s">
+      <c r="B33" s="61">
+        <v>0</v>
+      </c>
+      <c r="C33" s="61">
+        <v>0</v>
+      </c>
+      <c r="F33" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="G33" s="66">
-        <v>0</v>
-      </c>
-      <c r="H33" s="66">
-        <v>0</v>
-      </c>
-      <c r="K33" s="66" t="s">
+      <c r="G33" s="61">
+        <v>0</v>
+      </c>
+      <c r="H33" s="61">
+        <v>0</v>
+      </c>
+      <c r="K33" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="L33" s="66">
-        <v>0</v>
-      </c>
-      <c r="M33" s="66">
-        <v>0</v>
-      </c>
-      <c r="P33" s="66" t="s">
+      <c r="L33" s="61">
+        <v>0</v>
+      </c>
+      <c r="M33" s="61">
+        <v>0</v>
+      </c>
+      <c r="P33" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="Q33" s="66">
-        <v>0</v>
-      </c>
-      <c r="R33" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="66" customFormat="1">
-      <c r="A34" s="66" t="s">
+      <c r="Q33" s="61">
+        <v>0</v>
+      </c>
+      <c r="R33" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="61" customFormat="1">
+      <c r="A34" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="B34" s="66">
-        <v>0</v>
-      </c>
-      <c r="C34" s="66">
+      <c r="B34" s="61">
+        <v>0</v>
+      </c>
+      <c r="C34" s="61">
         <v>0.318801</v>
       </c>
-      <c r="F34" s="66" t="s">
+      <c r="F34" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="G34" s="66">
-        <v>0</v>
-      </c>
-      <c r="H34" s="66">
+      <c r="G34" s="61">
+        <v>0</v>
+      </c>
+      <c r="H34" s="61">
         <v>0.17627399999999999</v>
       </c>
-      <c r="K34" s="66" t="s">
+      <c r="K34" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="L34" s="66">
-        <v>0</v>
-      </c>
-      <c r="M34" s="66">
+      <c r="L34" s="61">
+        <v>0</v>
+      </c>
+      <c r="M34" s="61">
         <v>0.520042</v>
       </c>
-      <c r="P34" s="66" t="s">
+      <c r="P34" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="Q34" s="66">
-        <v>0</v>
-      </c>
-      <c r="R34" s="66">
+      <c r="Q34" s="61">
+        <v>0</v>
+      </c>
+      <c r="R34" s="61">
         <v>0.147787</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="66" customFormat="1">
-      <c r="A35" s="66" t="s">
+    <row r="35" spans="1:18" s="61" customFormat="1">
+      <c r="A35" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B35" s="66">
-        <v>0</v>
-      </c>
-      <c r="C35" s="66">
-        <v>0</v>
-      </c>
-      <c r="F35" s="66" t="s">
+      <c r="B35" s="61">
+        <v>0</v>
+      </c>
+      <c r="C35" s="61">
+        <v>0</v>
+      </c>
+      <c r="F35" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="G35" s="66">
+      <c r="G35" s="61">
         <v>0.55030599999999996</v>
       </c>
-      <c r="H35" s="66">
+      <c r="H35" s="61">
         <v>0.68222099999999997</v>
       </c>
-      <c r="K35" s="66" t="s">
+      <c r="K35" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="L35" s="66">
+      <c r="L35" s="61">
         <v>2.2203059999999999</v>
       </c>
-      <c r="M35" s="66">
+      <c r="M35" s="61">
         <v>2.4157549999999999</v>
       </c>
-      <c r="P35" s="66" t="s">
+      <c r="P35" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="Q35" s="66">
+      <c r="Q35" s="61">
         <v>3.95539</v>
       </c>
-      <c r="R35" s="66">
+      <c r="R35" s="61">
         <v>4.0269890000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="66" customFormat="1">
-      <c r="A36" s="66" t="s">
+    <row r="36" spans="1:18" s="61" customFormat="1">
+      <c r="A36" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="B36" s="66">
+      <c r="B36" s="61">
         <v>-15.687797</v>
       </c>
-      <c r="C36" s="66">
+      <c r="C36" s="61">
         <v>29.387492999999999</v>
       </c>
-      <c r="F36" s="66" t="s">
+      <c r="F36" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="G36" s="66">
-        <v>0</v>
-      </c>
-      <c r="H36" s="66">
-        <v>0</v>
-      </c>
-      <c r="K36" s="66" t="s">
+      <c r="G36" s="61">
+        <v>0</v>
+      </c>
+      <c r="H36" s="61">
+        <v>0</v>
+      </c>
+      <c r="K36" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="L36" s="66">
-        <v>0</v>
-      </c>
-      <c r="M36" s="66">
-        <v>0</v>
-      </c>
-      <c r="P36" s="66" t="s">
+      <c r="L36" s="61">
+        <v>0</v>
+      </c>
+      <c r="M36" s="61">
+        <v>0</v>
+      </c>
+      <c r="P36" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="Q36" s="66">
-        <v>0</v>
-      </c>
-      <c r="R36" s="66">
+      <c r="Q36" s="61">
+        <v>0</v>
+      </c>
+      <c r="R36" s="61">
         <v>0</v>
       </c>
     </row>

--- a/Flux_Variability/table 2_11012016.xlsx
+++ b/Flux_Variability/table 2_11012016.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="245">
   <si>
     <t>Model 1</t>
   </si>
@@ -1187,16 +1187,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1789,42 +1789,42 @@
   <sheetData>
     <row r="2" spans="1:325" ht="16.2" thickBot="1"/>
     <row r="3" spans="1:325">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="E3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="64"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="35"/>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64" t="s">
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64" t="s">
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64" t="s">
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
       <c r="U3" s="29"/>
       <c r="V3" s="29"/>
       <c r="W3" s="29"/>
@@ -2132,7 +2132,7 @@
       <c r="LM3" s="29"/>
     </row>
     <row r="4" spans="1:325" ht="49.8" thickBot="1">
-      <c r="A4" s="63"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="41" t="s">
         <v>11</v>
       </c>
@@ -3268,26 +3268,26 @@
       </c>
     </row>
     <row r="19" spans="2:20" s="19" customFormat="1">
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
     </row>
     <row r="20" spans="2:20" s="19" customFormat="1">
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
       <c r="K20" s="22"/>
@@ -3406,6 +3406,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:K3"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
@@ -3416,11 +3421,6 @@
     <mergeCell ref="O19:Q19"/>
     <mergeCell ref="R19:T19"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3534,42 +3534,42 @@
   <sheetData>
     <row r="2" spans="1:325" ht="16.2" thickBot="1"/>
     <row r="3" spans="1:325">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="E3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="64"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="35"/>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64" t="s">
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64" t="s">
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64" t="s">
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
       <c r="U3" s="29"/>
       <c r="V3" s="29"/>
       <c r="W3" s="29"/>
@@ -3877,7 +3877,7 @@
       <c r="LM3" s="29"/>
     </row>
     <row r="4" spans="1:325" ht="49.8" thickBot="1">
-      <c r="A4" s="63"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="41" t="s">
         <v>11</v>
       </c>
@@ -5008,26 +5008,26 @@
       </c>
     </row>
     <row r="19" spans="2:20" s="19" customFormat="1">
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
     </row>
     <row r="20" spans="2:20" s="19" customFormat="1">
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
       <c r="K20" s="22"/>
@@ -5143,6 +5143,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
@@ -5151,13 +5158,6 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6163,6 +6163,12 @@
     <sortCondition ref="B25:B32"/>
   </sortState>
   <mergeCells count="14">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="L21:N21"/>
@@ -6171,12 +6177,6 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -11296,7 +11296,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A36"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -11307,6 +11307,7 @@
     <col min="12" max="13" width="10.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="16" max="16" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -12669,8 +12670,36 @@
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
+      <c r="A37" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37" s="61">
+        <v>0</v>
+      </c>
+      <c r="H37" s="61">
+        <v>0</v>
+      </c>
+      <c r="K37" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="L37" s="61">
+        <v>0</v>
+      </c>
+      <c r="M37" s="61">
+        <v>0</v>
+      </c>
+      <c r="P37" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q37" s="56">
+        <v>-41.7</v>
+      </c>
+      <c r="R37" s="56">
+        <v>-41.7</v>
+      </c>
     </row>
     <row r="38" spans="1:18">
       <c r="B38" s="59"/>
